--- a/data/prepr/metrics/Consumer Defensive_sector_base_metrics.xlsx
+++ b/data/prepr/metrics/Consumer Defensive_sector_base_metrics.xlsx
@@ -476,8 +476,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0.155</v>
@@ -505,8 +507,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.151</v>
@@ -534,8 +538,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0.363</v>
@@ -563,8 +569,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.248</v>
@@ -592,8 +600,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0.288</v>
@@ -621,8 +631,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0.26</v>
@@ -650,8 +662,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0.292</v>
@@ -679,8 +693,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0.236</v>
@@ -708,8 +724,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0.162</v>
@@ -737,8 +755,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0.265</v>
@@ -766,8 +786,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0.178</v>
@@ -795,8 +817,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>STZ</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0.27</v>
@@ -824,8 +848,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0.35</v>
@@ -853,8 +879,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.104</v>
@@ -882,8 +910,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.139</v>
@@ -911,8 +941,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0.14</v>
@@ -940,8 +972,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>HSY</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0.067</v>
@@ -969,8 +1003,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0.141</v>
@@ -998,8 +1034,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0.064</v>
@@ -1027,8 +1065,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0.245</v>
@@ -1056,8 +1096,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>SYY</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0.373</v>
@@ -1085,8 +1127,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0.244</v>
@@ -1114,8 +1158,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0.09</v>
@@ -1143,8 +1189,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CHD</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0.136</v>
@@ -1172,8 +1220,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0.141</v>
@@ -1201,8 +1251,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>BF-B</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0.294</v>
@@ -1230,8 +1282,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0.164</v>
@@ -1259,8 +1313,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0.156</v>
@@ -1288,8 +1344,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MKC</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0.211</v>
@@ -1317,8 +1375,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0.074</v>
@@ -1346,8 +1406,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CLX</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0.115</v>
@@ -1375,8 +1437,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>BG</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0.196</v>
@@ -1404,8 +1468,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0.115</v>
@@ -1433,8 +1499,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>CPB</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0.052</v>
@@ -1462,8 +1530,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>TAP</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0.247</v>
@@ -1491,8 +1561,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0.141</v>
@@ -1520,8 +1592,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0.08599999999999999</v>
